--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -4163,6 +4163,656 @@
         <v>0.0</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="3">
+        <v>0.09724102198</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.1101479291</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.164543884</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.3746661022</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0.6594350099</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0.2859206902</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.5429347518</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.2337670974</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.1739029009</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0.113630948</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.6657297243</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0.6068154292</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0.1778153883</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0.08398864763</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0.1198268512</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0.1085874461</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0.2074315516</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0.7335296893</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0.849334208</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0.2410756984</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3">
+        <v>0.1337662451</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.05141706438</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.08693464737</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.2348312391</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0.2152395099</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0.1594663913</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0.2648267579</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0.07018314442</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.1033953884</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0.04313906364</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.8646910972</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0.03413221131</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0.06169695919</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0.037153804</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0.06685688028</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0.3795986651</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0.07148721113</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0.10869324</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0.1123685132</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0.2897721959</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3">
+        <v>0.03417009981</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.07989124366</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.09648353978</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.1234646188</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0.3462660659</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0.770740854</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0.1441139853</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0.1031161374</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0.07296654047</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.3067376429</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0.05815123068</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0.2041629881</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0.05848334431</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0.04489834095</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0.05916289651</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0.06708557216</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0.1911687383</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0.1463332686</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0.09515224277</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0.04980511518</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3">
+        <v>0.1693143913</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.3147371522</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.2170821589</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.5692811302</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.6082392716</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.4653296623</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.8903607773</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0.3380258688</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0.1647020397</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0.2440425838</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0.5905884821</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0.3644683064</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0.1783314054</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0.07378557335</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0.1955210717</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0.1120029162</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0.1119994046</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0.5733307319</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0.1516450319</v>
+      </c>
+      <c r="T61" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0.610719566</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3">
+        <v>0.03022771037</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.08402835097</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.1419964994</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.3193490056</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0.1403483953</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0.4288770431</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0.1063364752</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0.1489295003</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0.213108915</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0.4593016725</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0.2313420695</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0.1348333575</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.02456818412</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0.1044198906</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0.06922586404</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0.1683641566</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0.3515515973</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0.1895871849</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0.4905839119</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0.5175832181</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3">
+        <v>0.1527425764</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.2782209816</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.1925036367</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.8115155891</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.146480129</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0.5774551316</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.1716497233</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0.1656732263</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0.03718954806</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0.5056576536</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0.1358458501</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0.09643846694</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0.07508771035</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0.07618347503</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0.04062615141</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0.06351839377</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0.3160014368</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0.09628002634</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0.5270604612</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0.2356027875</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3">
+        <v>0.1896328065</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.4427254655</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.2554946796</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.4861495819</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0.802071037</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0.286147183</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0.4558839223</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0.1962051411</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0.2891635116</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.1362896737</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.669839359</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0.4397623507</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0.1378066708</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0.0489787577</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0.168837894</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0.5627751943</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0.4372578287</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0.2410277248</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0.4346455646</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0.9375894327</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0.4170547121</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3">
+        <v>0.1160246202</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.2378009565</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.3801532064</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.7790974334</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.7424492624</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.2088041316</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0.2142618405</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0.113460463</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.3262694311</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0.1522816943</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0.3119665407</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0.1849026969</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0.5127918004</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0.06365933792</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0.1816753008</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0.1401719107</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0.1116843593</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0.2342639624</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0.3085088784</v>
+      </c>
+      <c r="T65" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0.4045860426</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3">
+        <v>0.1477363119</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.2872983831</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.3102443806</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.8002844979</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0.7122537975</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0.2237407246</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0.2776468362</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0.1621913711</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0.1122796241</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0.5239527562</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0.2732414466</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0.3002745799</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0.1045621063</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0.1417995479</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0.1272257293</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0.3578023447</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0.2538563992</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0.2276945102</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0.3483116576</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0.1868175777</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3">
+        <v>0.05611562564</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.02975984176</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.1234927588</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.1246238893</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0.3479713951</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0.4641026943</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0.3718869039</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.1460528841</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0.09859125619</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0.14032932</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0.07895808724</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0.08910917938</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0.02567254796</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0.02317807762</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0.1306214366</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0.01995593165</v>
+      </c>
+      <c r="R67" s="3">
+        <v>0.1073468266</v>
+      </c>
+      <c r="S67" s="3">
+        <v>0.04286177531</v>
+      </c>
+      <c r="T67" s="3">
+        <v>0.4197412262</v>
+      </c>
+      <c r="U67" s="3">
+        <v>0.2615420383</v>
+      </c>
+    </row>
     <row r="101">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>

--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -4227,6 +4227,9 @@
       <c r="U58" s="3">
         <v>0.2410756984</v>
       </c>
+      <c r="V58" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="3">
@@ -4292,6 +4295,9 @@
       <c r="U59" s="3">
         <v>0.2897721959</v>
       </c>
+      <c r="V59" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="3">
@@ -4357,6 +4363,9 @@
       <c r="U60" s="3">
         <v>0.04980511518</v>
       </c>
+      <c r="V60" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="3">
@@ -4422,6 +4431,9 @@
       <c r="U61" s="3">
         <v>0.610719566</v>
       </c>
+      <c r="V61" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="3">
@@ -4487,6 +4499,9 @@
       <c r="U62" s="3">
         <v>0.5175832181</v>
       </c>
+      <c r="V62" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="3">
@@ -4552,6 +4567,9 @@
       <c r="U63" s="3">
         <v>0.2356027875</v>
       </c>
+      <c r="V63" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="3">
@@ -4617,6 +4635,9 @@
       <c r="U64" s="3">
         <v>0.4170547121</v>
       </c>
+      <c r="V64" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="3">
@@ -4682,6 +4703,9 @@
       <c r="U65" s="3">
         <v>0.4045860426</v>
       </c>
+      <c r="V65" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="3">
@@ -4747,6 +4771,9 @@
       <c r="U66" s="3">
         <v>0.1868175777</v>
       </c>
+      <c r="V66" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="3">
@@ -4811,6 +4838,9 @@
       </c>
       <c r="U67" s="3">
         <v>0.2615420383</v>
+      </c>
+      <c r="V67" s="2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">

--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -1306,6 +1306,22 @@
       <c r="V15" s="2">
         <v>1.0</v>
       </c>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -1374,6 +1390,7 @@
       <c r="V16" s="2">
         <v>1.0</v>
       </c>
+      <c r="X16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -1442,6 +1459,7 @@
       <c r="V17" s="2">
         <v>1.0</v>
       </c>
+      <c r="X17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -1510,6 +1528,7 @@
       <c r="V18" s="2">
         <v>1.0</v>
       </c>
+      <c r="X18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -1578,6 +1597,7 @@
       <c r="V19" s="2">
         <v>1.0</v>
       </c>
+      <c r="X19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -1646,6 +1666,7 @@
       <c r="V20" s="2">
         <v>1.0</v>
       </c>
+      <c r="X20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2">
@@ -1714,6 +1735,7 @@
       <c r="V21" s="2">
         <v>1.0</v>
       </c>
+      <c r="X21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2">
@@ -1782,6 +1804,7 @@
       <c r="V22" s="2">
         <v>1.0</v>
       </c>
+      <c r="X22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2">
@@ -1850,6 +1873,7 @@
       <c r="V23" s="2">
         <v>1.0</v>
       </c>
+      <c r="X23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2">
@@ -1918,6 +1942,7 @@
       <c r="V24" s="2">
         <v>1.0</v>
       </c>
+      <c r="X24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2">
@@ -1986,6 +2011,7 @@
       <c r="V25" s="2">
         <v>1.0</v>
       </c>
+      <c r="X25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2">
@@ -2054,6 +2080,7 @@
       <c r="V26" s="2">
         <v>1.0</v>
       </c>
+      <c r="X26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2">
@@ -2122,6 +2149,7 @@
       <c r="V27" s="2">
         <v>1.0</v>
       </c>
+      <c r="X27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2">
@@ -2190,6 +2218,7 @@
       <c r="V28" s="2">
         <v>1.0</v>
       </c>
+      <c r="X28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2">
@@ -2258,6 +2287,7 @@
       <c r="V29" s="2">
         <v>1.0</v>
       </c>
+      <c r="X29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2">
@@ -2326,6 +2356,7 @@
       <c r="V30" s="2">
         <v>1.0</v>
       </c>
+      <c r="X30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2">
@@ -4842,6 +4873,586 @@
       <c r="V67" s="2">
         <v>0.0</v>
       </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>0.2348168041</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.1932066166</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.2024011192</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.4275661366</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.1545882395</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0.3663011142</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0.1355981002</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0.1716433163</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0.05840731859</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0.1815098907</v>
+      </c>
+      <c r="L68" s="2">
+        <v>0.2148618783</v>
+      </c>
+      <c r="M68" s="4">
+        <v>0.0804714633</v>
+      </c>
+      <c r="N68" s="4">
+        <v>0.07956648866</v>
+      </c>
+      <c r="O68" s="4">
+        <v>0.08492013035</v>
+      </c>
+      <c r="P68" s="4">
+        <v>0.1206863846</v>
+      </c>
+      <c r="Q68" s="4">
+        <v>0.106633975</v>
+      </c>
+      <c r="R68" s="4">
+        <v>0.07196264847</v>
+      </c>
+      <c r="S68" s="4">
+        <v>0.07154999437</v>
+      </c>
+      <c r="T68" s="4">
+        <v>0.7228005764</v>
+      </c>
+      <c r="U68" s="4">
+        <v>0.3306782996</v>
+      </c>
+      <c r="V68" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>0.03622695895</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.05903942799</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.3457125212</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.5572050479</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.424166329</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.1906959285</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.1900041546</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0.04994227871</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0.1670153272</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0.3610296567</v>
+      </c>
+      <c r="L69" s="2">
+        <v>0.072531699</v>
+      </c>
+      <c r="M69" s="2">
+        <v>0.04344478551</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0.04090720862</v>
+      </c>
+      <c r="O69" s="2">
+        <v>0.02951475714</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.1385135777</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>0.1245111833</v>
+      </c>
+      <c r="R69" s="2">
+        <v>0.1718209014</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0.07125407247</v>
+      </c>
+      <c r="T69" s="2">
+        <v>0.3915861378</v>
+      </c>
+      <c r="U69" s="2">
+        <v>0.07874547971</v>
+      </c>
+      <c r="V69" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>0.0488832523</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.03363707051</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.1751917358</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.3278934577</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.1393134209</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.09500132692</v>
+      </c>
+      <c r="G70" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.2800308144</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0.2139728105</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0.1902788298</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0.5086038764</v>
+      </c>
+      <c r="L70" s="2">
+        <v>0.3507530103</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0.1986300702</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0.01873973458</v>
+      </c>
+      <c r="O70" s="2">
+        <v>0.009034634675</v>
+      </c>
+      <c r="P70" s="2">
+        <v>0.05240802419</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>0.04692523531</v>
+      </c>
+      <c r="R70" s="2">
+        <v>0.1060700534</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0.06657526051</v>
+      </c>
+      <c r="T70" s="2">
+        <v>0.2279955318</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0.1003939348</v>
+      </c>
+      <c r="V70" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>0.04843373506</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.1248203532</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.08879431562</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0.1304157129</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0.1032157881</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0.9790417206</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.1473743801</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0.06723048184</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0.06737927566</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0.4210878534</v>
+      </c>
+      <c r="L71" s="2">
+        <v>0.09718495159</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0.09207549049</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0.04390416475</v>
+      </c>
+      <c r="O71" s="4">
+        <v>0.03722126539</v>
+      </c>
+      <c r="P71" s="4">
+        <v>0.04702293593</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>0.05871873036</v>
+      </c>
+      <c r="R71" s="2">
+        <v>0.2965884774</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0.172424024</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0.1665995265</v>
+      </c>
+      <c r="U71" s="2">
+        <v>0.359643318</v>
+      </c>
+      <c r="V71" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>0.2051235585</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.3372615558</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.09814005263</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.5368386057</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.4124115094</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0.4334421579</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.2236848109</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0.2889681047</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0.1428138365</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0.2358964746</v>
+      </c>
+      <c r="L72" s="2">
+        <v>0.1683372654</v>
+      </c>
+      <c r="M72" s="2">
+        <v>0.1252625801</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0.07416808378</v>
+      </c>
+      <c r="O72" s="4">
+        <v>0.0986841733</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0.07924967837</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>0.05365527954</v>
+      </c>
+      <c r="R72" s="2">
+        <v>0.1467018315</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0.1135073523</v>
+      </c>
+      <c r="T72" s="2">
+        <v>0.8160838129</v>
+      </c>
+      <c r="U72" s="2">
+        <v>0.1787016218</v>
+      </c>
+      <c r="V72" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>0.06818114228</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.1346605553</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.2678248967</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.5929944419</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.4917079222</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.5040074283</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.4366139557</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0.0888001289</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.04939210819</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0.2510522887</v>
+      </c>
+      <c r="L73" s="2">
+        <v>0.3331240756</v>
+      </c>
+      <c r="M73" s="2">
+        <v>0.08169242136</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0.02786573576</v>
+      </c>
+      <c r="O73" s="4">
+        <v>0.2101597203</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0.0970351349</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>0.07849309195</v>
+      </c>
+      <c r="R73" s="2">
+        <v>0.143348789</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0.06384451826</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0.3821366544</v>
+      </c>
+      <c r="U73" s="2">
+        <v>0.1328850544</v>
+      </c>
+      <c r="V73" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>0.002209853287</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.002963303466</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.004229586931</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.02111864854</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.01767931857</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.3836951109</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0.7145434297</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.7277384967</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0.008136134816</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0.004301396587</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>0.1477001322</v>
+      </c>
+      <c r="M74" s="2">
+        <v>0.458839411</v>
+      </c>
+      <c r="N74" s="2">
+        <v>0.04921012868</v>
+      </c>
+      <c r="O74" s="4">
+        <v>0.1175007274</v>
+      </c>
+      <c r="P74" s="4">
+        <v>0.02232443358</v>
+      </c>
+      <c r="Q74" s="4">
+        <v>0.001885427626</v>
+      </c>
+      <c r="R74" s="2">
+        <v>0.05976978915</v>
+      </c>
+      <c r="S74" s="2">
+        <v>0.02916356813</v>
+      </c>
+      <c r="T74" s="2">
+        <v>0.02767817369</v>
+      </c>
+      <c r="U74" s="2">
+        <v>0.002621222777</v>
+      </c>
+      <c r="V74" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>0.09278163127</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.1035817937</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.3961774144</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.7902471368</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.9249079131</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.3575379968</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0.5946909029</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.1246131888</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0.2036263852</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0.1157371923</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>0.1411153595</v>
+      </c>
+      <c r="M75" s="2">
+        <v>0.3169310008</v>
+      </c>
+      <c r="N75" s="2">
+        <v>0.09374102588</v>
+      </c>
+      <c r="O75" s="4">
+        <v>0.1328719086</v>
+      </c>
+      <c r="P75" s="4">
+        <v>0.2337012287</v>
+      </c>
+      <c r="Q75" s="4">
+        <v>0.2487162114</v>
+      </c>
+      <c r="R75" s="2">
+        <v>0.309378615</v>
+      </c>
+      <c r="S75" s="2">
+        <v>0.2271617479</v>
+      </c>
+      <c r="T75" s="2">
+        <v>0.2475636502</v>
+      </c>
+      <c r="U75" s="2">
+        <v>0.06422184813</v>
+      </c>
+      <c r="V75" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4"/>
+      <c r="AF91" s="4"/>
+      <c r="AG91" s="4"/>
+    </row>
+    <row r="94">
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="4"/>
